--- a/output/fit_clients/fit_round_61.xlsx
+++ b/output/fit_clients/fit_round_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9644626591.072088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004009851307561554</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.082869828466371</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9465266285858839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.082869828466371</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5420885605.044484</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004022444520741474</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.556652183202105</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8939260074078494</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.556652183202105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5856874545.068866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002820839512623019</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.425448473777383</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9677682122305598</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.425448473777383</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3919518856.046842</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004720890265658828</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.745504853833555</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.626889494288463</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.031220223797991</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.626889494288463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7876931724.556774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001938395701131232</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.458886410087572</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8623964836322904</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.458886410087572</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6313869819.864791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009768390158561944</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1447955821736212</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.551295514191251</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.2063315578316265</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.551295514191251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7655213176.825391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003003161132408502</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.376867166955192</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9570386789662387</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.376867166955192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>7060220497.267943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005486920122506339</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.336326245359393</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9128602931289557</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.336326245359393</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3739853774.50438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00537539478437797</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.955644293284644</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9583180078057681</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.955644293284644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3433125922.047415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001473293473446057</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.527440257505001</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7791261173595584</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.527440257505001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6580025773.951731</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001586144076149746</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.787356400752333</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.015601997624831</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.787356400752333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5452367493.883157</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.0042974906619728</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.474488209774585</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.012097789260071</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.474488209774585</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8987869470.280067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003471407550600756</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.975607621846882</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8913247032848779</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.975607621846882</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>4959677143.381993</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004272235373808786</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.382076834126742</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9900514439937177</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.382076834126742</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7586055224.207242</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004376875691474443</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.190478285436599</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9186385669104095</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.190478285436599</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6205248259.484263</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002499020975203892</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8475800666463251</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.903970743314643</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.222743834819074</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.903970743314643</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4907483641.11159</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009562158681890772</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.232595020466805</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9374845656585513</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.232595020466805</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4751977664.023546</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001945830656096029</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.766359865286841</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9075404564753267</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.766359865286841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5545527774.976758</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001249067958966939</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.632279819965941</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8507223119437057</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.632279819965941</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7882663166.407351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005637650270050196</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.832342388274614</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8536729907662717</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.832342388274614</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4972346074.137814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005235774322458826</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.686108616799364</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7896577299089603</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.686108616799364</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7886601072.936818</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001329305067724662</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.308591097846449</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8454670328216548</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.308591097846449</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6976583971.911918</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004686841737505593</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.228436476815639</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9973256526584426</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.228436476815639</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4905638924.335924</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002835480728216476</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.181814096650553</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9342430133580324</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.181814096650553</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5210712686.42476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001405206719910208</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.829876159889283</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.4139530009082</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.083949846074908</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.4139530009082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8500414877.781838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003660462139196433</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.784303817020371</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9277951192796428</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.784303817020371</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7655569392.264608</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005179618636853924</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.011544968403302</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9096721244449892</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.011544968403302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7312176776.292508</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.0015145338525499</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.08996756768224</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9775211032527629</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.08996756768224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5670726884.2777</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004114424792558109</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.854887004500541</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9039785584896439</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.854887004500541</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7879041433.682035</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003162634353035312</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.739806348117019</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9574410264966148</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.739806348117019</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3503259923.084041</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001238765900883502</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3203810854885546</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.271827284678706</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.680404174617851</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.271827284678706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6395456210.718501</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002901801022105012</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.374490681339568</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8557138107603047</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.374490681339568</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7355644697.682388</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004318861596533149</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.012575575463029</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7505215363808205</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.012575575463029</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5907568881.294724</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002596619734679108</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.978662341995292</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9332058513971552</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.978662341995292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7895588145.087811</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003683251423916132</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2561637524824887</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.981346814757696</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.637789893542599</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.981346814757696</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5362139642.921391</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00588468763833231</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.933601665228563</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.012927450457854</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.933601665228563</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4354357390.857004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004698418913143424</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.6784308777143</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8983918167961306</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.6784308777143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5218583835.217295</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002107657485408459</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.179238146673888</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8582734668505739</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.179238146673888</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7324803366.992887</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003435330298575825</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5439528984494664</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.055785834659309</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9974651176256267</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.055785834659309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7226982026.995774</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001010020090232957</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.142463202595672</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9275875377927427</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.142463202595672</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5761825023.616341</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005531590381385152</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.763259666198663</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9786424864532446</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.763259666198663</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5971819138.339326</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003381135578788125</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.985122886321292</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.326855299276457</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.985122886321292</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4898314540.844062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.0015202904362773</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1321011256833284</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.702468276448829</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.1706001205800532</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.702468276448829</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4450666543.01706</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001074300759017968</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4562305037835071</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.148286877498089</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.8667622972754162</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.148286877498089</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7987916486.905167</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005471055245427073</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.009864414346787</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8388025373073921</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.009864414346787</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8185485971.047996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002966201455831592</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.677408657097656</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8868233064820534</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.677408657097656</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6871037891.520169</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002274924002272751</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.516304427962435</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9559591022009227</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.516304427962435</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5165158263.118847</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005161211762035303</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.798631392510924</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8716283580251197</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.798631392510924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5639476904.941115</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003893080029933836</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.901846086869059</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.043498278520379</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.901846086869059</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5550209305.207214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004771910891918704</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.573903922399447</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.931334854023942</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.573903922399447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8541639666.6984</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002170448623577099</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.917368956062206</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8582734668505739</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.917368956062206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7158806981.542371</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002727541739886361</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.136526236754628</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9364509938707924</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.136526236754628</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6114106961.807281</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003778958935959266</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.50233235727939</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8341716303541425</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.50233235727939</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9367343328.951674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004028956030377711</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.657599799411559</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8973132170874586</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.657599799411559</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4350335528.015388</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002427904966968464</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.157185014989855</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9242418278775614</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.157185014989855</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5650827244.646922</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003259673047802724</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7102618039290759</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.624004315036212</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9735778046410761</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.624004315036212</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7309419958.268566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002483552620168643</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.434203085660624</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8141244754835123</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.434203085660624</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5018089345.205125</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003358149490273176</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.947067975474048</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9005451406448584</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.947067975474048</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4109330398.090011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002615345165533072</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.638326187040008</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8278039665548603</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.638326187040008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5958125915.005342</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005225593470964703</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.108641493163377</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9247278646229629</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.108641493163377</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5059309046.500707</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003240369950295834</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7645186786650042</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.247787671295294</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.074156811134424</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.247787671295294</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6616121222.660376</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00454238750688425</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.544523611714092</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9019757770675895</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.544523611714092</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3467659875.02477</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003877047935840719</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.080933977026894</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8993263819949782</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.080933977026894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7142403349.95625</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004240634453886338</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1123012453722717</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.210841732636751</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.2093619150119413</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.210841732636751</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4320150122.570087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.004036281146408109</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.157773667604042</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9220046097960453</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.157773667604042</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7122642654.072116</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005207618423814027</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.556358483894659</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9003312763912757</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.556358483894659</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8814286080.736046</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00275659350165598</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6015415821991742</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.449068581345546</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7815357786341942</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.449068581345546</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5459220956.399794</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009362631764888154</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.767964944138597</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9960964242497889</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.767964944138597</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7381690036.011032</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003590393023796053</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.284972434200163</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9083242829215163</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.284972434200163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4920127195.120188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003623822385623085</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.233514202635024</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8136512615364497</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.233514202635024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8140592730.829431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002128922768823731</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.757159890885452</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.043062250582638</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.757159890885452</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7842946611.321045</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001226350266107007</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.261788556000249</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9656983161012951</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.261788556000249</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6243584283.17327</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004929233416178912</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7884255847275752</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.920895043489791</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.113604304982539</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.920895043489791</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8169258563.923885</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003537793066937586</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.843360851999593</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8644167083897851</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.843360851999593</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6393687550.124251</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002259182377140748</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.671538336000669</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9099543384770605</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.671538336000669</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7743170889.318628</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004340661485929957</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.507890006123258</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9930462142133718</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.507890006123258</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6396775581.397747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004611152787553748</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.618973654505667</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.896233319305546</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.618973654505667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6833721772.612158</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002354103896512819</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.899621710818091</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9845619319523965</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.899621710818091</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5450537607.915615</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002465855955363719</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.879535163991794</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9564290210425881</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.879535163991794</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4722518429.516704</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004086929523570162</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.394454662029144</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9762669390372316</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.394454662029144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7802908671.897798</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00596821367870022</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.839361413382144</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8960900627576194</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.839361413382144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9498684670.684258</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002992227362560751</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>19</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7239520250351853</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.244993891152121</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9907280648183614</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.244993891152121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7265143053.839109</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005274952073680657</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.555566415261538</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9422889731160216</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.555566415261538</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5108673371.071501</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002910765572297829</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.377379561348262</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8859480081156446</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.377379561348262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6138652876.081826</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002476796460455012</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.3030951544980975</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.930140881115356</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.6689298138376554</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.930140881115356</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4746068943.338539</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001185699779055743</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.299960064681744</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9469334426471627</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.299960064681744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6022045263.577334</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004744913346282471</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.918134947766011</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8534473809632948</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.918134947766011</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6028022608.464756</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004112427164836276</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.971001778742085</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4435327625727437</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.971001778742085</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4911833429.447236</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003409136512648584</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.914187395994967</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9474814639444543</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.914187395994967</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7259970025.97467</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003139608682507184</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.33555423995736</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8261672191125141</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.33555423995736</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4897957414.938773</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003293813841598465</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5961254954956804</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.058346196032705</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.114274790197781</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.058346196032705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6281989620.178617</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001761714529421588</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.777531166482285</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9210930548100079</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.777531166482285</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6884253939.806474</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001077583223598226</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>8</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.521029096402483</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.023766390473423</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.521029096402483</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5493940213.097425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002226601748276592</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.214415110208345</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9319609278638014</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.214415110208345</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7076061928.814515</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002047126743721088</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.556973743203125</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9156808499290084</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.556973743203125</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5698441047.864951</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004853189602421044</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.006601828590759</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8867509209972779</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.006601828590759</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7587170451.417635</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003645645295063641</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.938168666833807</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.876061289076967</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.938168666833807</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3506396382.748726</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004581454952459543</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.808882063513115</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9064019264006423</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.808882063513115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5848093437.719484</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003250744137094723</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7380960961466249</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.053283679435806</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.018130805649832</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.053283679435806</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6682993654.939381</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00164450051616325</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5307451847249409</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.951201748832628</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.879882145636624</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.951201748832628</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_61.xlsx
+++ b/output/fit_clients/fit_round_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9644626591.072088</v>
+        <v>1866322873.430879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004009851307561554</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.08015410275165179</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04059760990873363</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>933161414.309466</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5420885605.044484</v>
+        <v>2428123015.523975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004022444520741474</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1536484539908292</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03379741043567017</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1214061614.00483</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5856874545.068866</v>
+        <v>4541625065.083522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002820839512623019</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.1573665719192536</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03655698026596069</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2270812584.975423</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3919518856.046842</v>
+        <v>2819614090.177128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004720890265658828</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07522699545186599</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03195884168098294</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1409807126.778372</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7876931724.556774</v>
+        <v>2557075870.336131</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001938395701131232</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1353260976367441</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0451786770288902</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1278537904.368114</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6313869819.864791</v>
+        <v>2608662859.671818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009768390158561944</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.07164389358162639</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03087216165408177</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1304331432.279689</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3497931586.084806</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1437473961519258</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0335207231476837</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7655213176.825391</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003003161132408502</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1748965901.355959</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>7060220497.267943</v>
+        <v>1655000304.960944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005486920122506339</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19</v>
+        <v>0.1926033250224709</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02992971561880568</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>827500226.8495352</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3739853774.50438</v>
+        <v>5222125846.22408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00537539478437797</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1491557032957159</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03377818515243534</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2611063039.499996</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3433125922.047415</v>
+        <v>3133181283.60724</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001473293473446057</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1176803822600609</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04355076216967028</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1566590593.947214</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6580025773.951731</v>
+        <v>2058131540.654074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001586144076149746</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17</v>
+        <v>0.1983695851124353</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03433036742833471</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1029065701.988078</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5452367493.883157</v>
+        <v>4471118641.853648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0042974906619728</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
+        <v>0.06564313192582058</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02824621931701006</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2235559351.815245</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8987869470.280067</v>
+        <v>3718297443.81939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003471407550600756</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
+        <v>0.1384491662666956</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04227156694877486</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1859148704.240749</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>4959677143.381993</v>
+        <v>1828148066.558376</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004272235373808786</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
+        <v>0.08943893320730889</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03827697976606287</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>914074193.03834</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7586055224.207242</v>
+        <v>2167736492.674208</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004376875691474443</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19</v>
+        <v>0.076818687920716</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0448338994145029</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1083868306.723129</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6205248259.484263</v>
+        <v>4280555580.942475</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002499020975203892</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1087214524972407</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04011347411287097</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2140277811.083946</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4907483641.11159</v>
+        <v>2737726517.879723</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009562158681890772</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.1801388780941137</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02716637127914481</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1368863308.055705</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4751977664.023546</v>
+        <v>944479804.1539071</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001945830656096029</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1482584669341063</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01872525735809491</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>472239917.6836985</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2403341867.125189</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1517356409507144</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0315965186044078</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="n">
-        <v>508</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5545527774.976758</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001249067958966939</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
+      <c r="J20" t="n">
+        <v>1201670916.828297</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7882663166.407351</v>
+        <v>2510288136.580962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005637650270050196</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11</v>
+        <v>0.07250526369163279</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0428814914996645</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1255144055.371568</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4972346074.137814</v>
+        <v>2597130846.304098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005235774322458826</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.0914159162507933</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05713146672161494</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1298565508.698684</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7886601072.936818</v>
+        <v>1475669177.389566</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001329305067724662</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.1749528994968109</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03449342905769357</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>737834578.6269847</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6976583971.911918</v>
+        <v>2499689126.939569</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004686841737505593</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>16</v>
+        <v>0.09722823413254258</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03462636791332858</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1249844632.263806</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4905638924.335924</v>
+        <v>1352656101.087238</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002835480728216476</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.1137754976896244</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0280804777368263</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>676328033.2823735</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5210712686.42476</v>
+        <v>893354612.59939</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001405206719910208</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.122687577233444</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02470168660443411</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>446677252.1338434</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8500414877.781838</v>
+        <v>4299607109.278641</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003660462139196433</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>17</v>
+        <v>0.1558592955883768</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02560140018008789</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2149803549.792432</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7655569392.264608</v>
+        <v>2623165435.303066</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005179618636853924</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15</v>
+        <v>0.100537301722474</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03041180842112025</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1311582696.070477</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7312176776.292508</v>
+        <v>4343164564.026222</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0015145338525499</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.1427192248629829</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03500298995395312</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2171582275.032485</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5670726884.2777</v>
+        <v>2115322050.34212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004114424792558109</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.1228693695598458</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02784549580170323</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1057661075.632283</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7879041433.682035</v>
+        <v>1333711569.761854</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003162634353035312</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.09660378419207322</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04286997547611144</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>666855704.7756368</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3503259923.084041</v>
+        <v>1802484898.162369</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001238765900883502</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1060638293266197</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03234434447289012</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>901242579.9567903</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6395456210.718501</v>
+        <v>2741100187.269594</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002901801022105012</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1708329266905307</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05894987878932843</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1370550111.199229</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7355644697.682388</v>
+        <v>1404902979.023211</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004318861596533149</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>19</v>
+        <v>0.1128459610575911</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01717873117197896</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>702451460.8796836</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5907568881.294724</v>
+        <v>1086959088.295833</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002596619734679108</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>16</v>
+        <v>0.1170077254318816</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03363326084815567</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>543479543.5415745</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7895588145.087811</v>
+        <v>2194916708.427879</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003683251423916132</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>17</v>
+        <v>0.1362792788423853</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02719811904442502</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1097458400.524003</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5362139642.921391</v>
+        <v>2767495110.410779</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00588468763833231</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.08054379378595065</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0256234699627618</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1383747687.965634</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4354357390.857004</v>
+        <v>1804780781.575371</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004698418913143424</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.0836428515586557</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03562859377506546</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>902390396.880201</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5218583835.217295</v>
+        <v>1629321181.500273</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002107657485408459</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
+        <v>0.1919337421514272</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02460453602685593</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>814660641.4432939</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7324803366.992887</v>
+        <v>1596819285.917112</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003435330298575825</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>18</v>
+        <v>0.1213463956786131</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04343159497417787</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>798409584.8151388</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7226982026.995774</v>
+        <v>2126533970.092101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001010020090232957</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>17</v>
+        <v>0.1164807237220829</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03245304189012838</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1063267046.757151</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5761825023.616341</v>
+        <v>4318215502.25625</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005531590381385152</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>15</v>
+        <v>0.1200785522528915</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04373598758817799</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2159107802.218297</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5971819138.339326</v>
+        <v>2185409242.151041</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003381135578788125</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.182310221532182</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01798573332066974</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1092704701.255373</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4898314540.844062</v>
+        <v>1824441882.797124</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0015202904362773</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.09941494104024551</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02622070421948479</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>912221012.5997531</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4450666543.01706</v>
+        <v>1846221885.865271</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001074300759017968</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1237949247160504</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03953571981819494</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>923110918.1894182</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7987916486.905167</v>
+        <v>4094706810.837027</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005471055245427073</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1228667002732159</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04318200056908818</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2047353380.288525</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8185485971.047996</v>
+        <v>3795611132.013091</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002966201455831592</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1997777974477708</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05049391136414275</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1897805553.429356</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6871037891.520169</v>
+        <v>3968486990.575845</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002274924002272751</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
+        <v>0.1041017378957419</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0260437952548947</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1984243531.371773</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5165158263.118847</v>
+        <v>1640280431.459072</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005161211762035303</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1499334746674892</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04334545888501921</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>820140225.8285038</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5639476904.941115</v>
+        <v>3985226348.415806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003893080029933836</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1569864505420778</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04926936745498165</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1992613163.799434</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5550209305.207214</v>
+        <v>1076552947.678562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004771910891918704</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1505456028697977</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05263210471315627</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>538276545.3002779</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8541639666.6984</v>
+        <v>3370608435.272676</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002170448623577099</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>15</v>
+        <v>0.1301542255175326</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04816730971653401</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1685304311.053331</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7158806981.542371</v>
+        <v>3389420644.958406</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002727541739886361</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1421690887913873</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02892138966630854</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1694710327.921426</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6114106961.807281</v>
+        <v>3987050772.908504</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003778958935959266</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>17</v>
+        <v>0.1365475190495444</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03787601628672263</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1993525449.391869</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9367343328.951674</v>
+        <v>4739128189.682867</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004028956030377711</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>19</v>
+        <v>0.1952967945545455</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02602677053590321</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2369564102.233812</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4350335528.015388</v>
+        <v>1811445303.492958</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002427904966968464</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
+        <v>0.1562125988429302</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05038057678690271</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>905722647.7872807</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>496</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2786096259.219233</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1109868472540692</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02399592527983064</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>475</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5650827244.646922</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.003259673047802724</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+      <c r="I57" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1393048115.966547</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7309419958.268566</v>
+        <v>1622067524.849662</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002483552620168643</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1547590024589769</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03978113415126838</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>811033782.3130556</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5018089345.205125</v>
+        <v>3869664578.679683</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003358149490273176</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1113775703153086</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03994366445369273</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1934832271.458998</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4109330398.090011</v>
+        <v>3533159975.90717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002615345165533072</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1480902917350742</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02072942922028682</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1766580114.098867</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5958125915.005342</v>
+        <v>2296110115.8195</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005225593470964703</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+        <v>0.1197314592388257</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02265538230522556</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1148055104.643824</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5059309046.500707</v>
+        <v>1649006509.616633</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003240369950295834</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1717210794684974</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04988244782490301</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>824503260.1262959</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6616121222.660376</v>
+        <v>3553151407.477402</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00454238750688425</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.08025161768671571</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03462857453627835</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1776575785.948344</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3467659875.02477</v>
+        <v>5319978590.211573</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003877047935840719</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1187429697585265</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02376117971697023</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2659989423.697731</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7142403349.95625</v>
+        <v>5275090387.524663</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004240634453886338</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1171147865717352</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03187305884825475</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2637545136.133469</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4320150122.570087</v>
+        <v>4138861471.148424</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004036281146408109</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1079306846766147</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04227070003882059</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2069430716.485967</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7122642654.072116</v>
+        <v>2414581148.935251</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005207618423814027</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08722184825261173</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03573332889552603</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1207290642.175658</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>496</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5876063934.631138</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.09656095585308162</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03473137506210379</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>462</v>
-      </c>
-      <c r="E68" t="n">
-        <v>8814286080.736046</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.00275659350165598</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>13</v>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2938032076.657544</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5459220956.399794</v>
+        <v>1742848597.574973</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009362631764888154</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1439698670568108</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04423931680177311</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>871424270.3975967</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7381690036.011032</v>
+        <v>2307896761.501925</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003590393023796053</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.07016129595981983</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04075230053963219</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1153948312.611449</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4920127195.120188</v>
+        <v>4946930303.291273</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003623822385623085</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1244615698083866</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03052749185961287</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2473465253.25526</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8140592730.829431</v>
+        <v>1588266915.340447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002128922768823731</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.09753518318192229</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0496242346172738</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>794133470.3102566</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7842946611.321045</v>
+        <v>3139744677.427341</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001226350266107007</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>14</v>
+        <v>0.07870421746467823</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03443589093444594</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1569872321.807525</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6243584283.17327</v>
+        <v>2755004474.547138</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004929233416178912</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13</v>
+        <v>0.1251590621199748</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03506159687437962</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1377502323.698718</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8169258563.923885</v>
+        <v>1518878712.66889</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003537793066937586</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>11</v>
+        <v>0.1135977945100229</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03050142091866337</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>759439365.4936123</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6393687550.124251</v>
+        <v>3616469204.465408</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002259182377140748</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>12</v>
+        <v>0.09809081756237521</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02325519579494851</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1808234570.757628</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7743170889.318628</v>
+        <v>1678231243.793311</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004340661485929957</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1751018335138182</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01936785078214032</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>839115635.7881715</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6396775581.397747</v>
+        <v>4680556336.229213</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004611152787553748</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>12</v>
+        <v>0.0950182355978204</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05229736056615604</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2340278084.960852</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6833721772.612158</v>
+        <v>1397124062.923336</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002354103896512819</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.119211266777661</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03926958604953992</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>698562047.536163</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5450537607.915615</v>
+        <v>4644901025.740056</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002465855955363719</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>19</v>
+        <v>0.08617965898320253</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02641212419910846</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2322450544.300665</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3963264373.8528</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1104311857873103</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02804508508878113</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4722518429.516704</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.004086929523570162</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1981632148.654173</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7802908671.897798</v>
+        <v>4484384512.637544</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00596821367870022</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.2106011972908946</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02050194248685963</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>11</v>
+      <c r="I82" t="n">
+        <v>22</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2242192268.926052</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9498684670.684258</v>
+        <v>2051050591.218178</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002992227362560751</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1283055884314418</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04065008162582476</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1025525287.181444</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7265143053.839109</v>
+        <v>1645589904.133034</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005274952073680657</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16</v>
+        <v>0.08636208918785002</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0350973925353036</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>822795008.8504401</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5108673371.071501</v>
+        <v>3273694135.518141</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002910765572297829</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1131610861859195</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03462557989259036</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1636847158.021106</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6138652876.081826</v>
+        <v>1979676268.341187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002476796460455012</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1049043751200092</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0204751356267971</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>989838158.8342153</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4746068943.338539</v>
+        <v>998261104.6325111</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001185699779055743</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1208913373625267</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03006371180197876</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>499130556.0531285</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6022045263.577334</v>
+        <v>2604164887.008518</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004744913346282471</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>14</v>
+        <v>0.1423546064131559</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03020379926176922</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1302082434.736913</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6028022608.464756</v>
+        <v>3494420982.028647</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004112427164836276</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.1566060268343807</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03122029865683454</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1747210492.755223</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4911833429.447236</v>
+        <v>1858844014.121262</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003409136512648584</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.09514399126171813</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05082696134159639</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>929422051.3571514</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7259970025.97467</v>
+        <v>1752639613.815663</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003139608682507184</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>19</v>
+        <v>0.1613028609679903</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05444222354065816</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>876319812.0338953</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4897957414.938773</v>
+        <v>2510784959.27611</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003293813841598465</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0908445451692929</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03264885534967151</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1255392464.288772</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6281989620.178617</v>
+        <v>3867384310.744926</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001761714529421588</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.1210079914307825</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04123473470022261</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1933692164.460937</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6884253939.806474</v>
+        <v>2279892959.969227</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001077583223598226</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>18</v>
+        <v>0.1152369503249095</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03587496555265263</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1139946514.642021</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5493940213.097425</v>
+        <v>2680769316.340919</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002226601748276592</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15</v>
+        <v>0.1286540436633128</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04133061493387773</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1340384680.996101</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7076061928.814515</v>
+        <v>2196802769.856363</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002047126743721088</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>16</v>
+        <v>0.1189325206267691</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03411256498668216</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1098401350.787439</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5698441047.864951</v>
+        <v>5328331280.625325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004853189602421044</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1515419320043479</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02874808669709517</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2664165803.401384</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7587170451.417635</v>
+        <v>3460145677.359611</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003645645295063641</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>23</v>
+        <v>0.1216702492104159</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02668092300951258</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1730072854.469041</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3506396382.748726</v>
+        <v>2226560708.315414</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004581454952459543</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1333274678341917</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03330301725646873</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1113280283.951149</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5848093437.719484</v>
+        <v>3313716603.895135</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003250744137094723</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1626902812432711</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0263024815033244</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1656858317.739201</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6682993654.939381</v>
+        <v>2202006584.224187</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00164450051616325</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>20</v>
+        <v>0.2207210085938495</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03562466507562372</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1101003275.596658</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_61.xlsx
+++ b/output/fit_clients/fit_round_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1866322873.430879</v>
+        <v>2018430112.775959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08015410275165179</v>
+        <v>0.1129876935784356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04059760990873363</v>
+        <v>0.04549072832190978</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>933161414.309466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2428123015.523975</v>
+        <v>1794547403.952553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1536484539908292</v>
+        <v>0.154601401941969</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03379741043567017</v>
+        <v>0.04603866537898748</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1214061614.00483</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4541625065.083522</v>
+        <v>3763538755.124178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1573665719192536</v>
+        <v>0.1105656063406037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03655698026596069</v>
+        <v>0.02614805943522577</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2270812584.975423</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2819614090.177128</v>
+        <v>4212934760.322126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07522699545186599</v>
+        <v>0.08077496296487144</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03195884168098294</v>
+        <v>0.03171784134078707</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1409807126.778372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2557075870.336131</v>
+        <v>1906213151.514312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1353260976367441</v>
+        <v>0.1049716983038883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0451786770288902</v>
+        <v>0.05567235548118318</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1278537904.368114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2608662859.671818</v>
+        <v>2324379469.005121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07164389358162639</v>
+        <v>0.07492666626259649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03087216165408177</v>
+        <v>0.03020707505669477</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1304331432.279689</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3497931586.084806</v>
+        <v>3495600995.222842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1437473961519258</v>
+        <v>0.1500633148320401</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0335207231476837</v>
+        <v>0.02623896123005168</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1748965901.355959</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1655000304.960944</v>
+        <v>1680348206.458302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1926033250224709</v>
+        <v>0.1812103944977916</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02992971561880568</v>
+        <v>0.02784756529245272</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>827500226.8495352</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5222125846.22408</v>
+        <v>4570114591.605577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1491557032957159</v>
+        <v>0.2111681436043177</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03377818515243534</v>
+        <v>0.04538348614307582</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>26</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2611063039.499996</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3133181283.60724</v>
+        <v>2960627785.546042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1176803822600609</v>
+        <v>0.1323030825633331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04355076216967028</v>
+        <v>0.0406259238605965</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1566590593.947214</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2058131540.654074</v>
+        <v>2670535235.186067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1983695851124353</v>
+        <v>0.1560118891037074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03433036742833471</v>
+        <v>0.04175821940095843</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1029065701.988078</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4471118641.853648</v>
+        <v>3916964118.583291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06564313192582058</v>
+        <v>0.09800899718587226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02824621931701006</v>
+        <v>0.02134196249560063</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2235559351.815245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3718297443.81939</v>
+        <v>3699006847.724956</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1384491662666956</v>
+        <v>0.1368145411688986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04227156694877486</v>
+        <v>0.04096630328357182</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1859148704.240749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1828148066.558376</v>
+        <v>1409952921.340339</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08943893320730889</v>
+        <v>0.1027007452354007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03827697976606287</v>
+        <v>0.04951118959632292</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>914074193.03834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2167736492.674208</v>
+        <v>2801144976.458163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.076818687920716</v>
+        <v>0.1064170820980539</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0448338994145029</v>
+        <v>0.03526124362024645</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1083868306.723129</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4280555580.942475</v>
+        <v>4409622483.207839</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1087214524972407</v>
+        <v>0.1688820257386555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04011347411287097</v>
+        <v>0.03990907021453058</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2140277811.083946</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2737726517.879723</v>
+        <v>3476183504.576579</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1801388780941137</v>
+        <v>0.1472653857521663</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02716637127914481</v>
+        <v>0.02414881860365089</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1368863308.055705</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>944479804.1539071</v>
+        <v>1212049739.277217</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1482584669341063</v>
+        <v>0.1867765093741272</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01872525735809491</v>
+        <v>0.01768958295704025</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>472239917.6836985</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2403341867.125189</v>
+        <v>2378202890.827393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1517356409507144</v>
+        <v>0.1547983162365804</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0315965186044078</v>
+        <v>0.02058198823390966</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1201670916.828297</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2510288136.580962</v>
+        <v>1850681060.855605</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07250526369163279</v>
+        <v>0.06570285195300776</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0428814914996645</v>
+        <v>0.03898636119616736</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1255144055.371568</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2597130846.304098</v>
+        <v>2832891731.546948</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0914159162507933</v>
+        <v>0.1427088593915004</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05713146672161494</v>
+        <v>0.03554138571212175</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1298565508.698684</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1475669177.389566</v>
+        <v>982323151.5476739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749528994968109</v>
+        <v>0.1801141972614087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03449342905769357</v>
+        <v>0.04670994961009495</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>737834578.6269847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2499689126.939569</v>
+        <v>4011266626.841387</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09722823413254258</v>
+        <v>0.1122835058371125</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03462636791332858</v>
+        <v>0.02963930795235035</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1249844632.263806</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1352656101.087238</v>
+        <v>1002720434.296849</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1137754976896244</v>
+        <v>0.11503447036494</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0280804777368263</v>
+        <v>0.02219898552422672</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676328033.2823735</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>893354612.59939</v>
+        <v>1435341983.254542</v>
       </c>
       <c r="F26" t="n">
-        <v>0.122687577233444</v>
+        <v>0.09771382414913625</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02470168660443411</v>
+        <v>0.02398724567517454</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>446677252.1338434</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4299607109.278641</v>
+        <v>4009481625.580821</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1558592955883768</v>
+        <v>0.1171986343527371</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02560140018008789</v>
+        <v>0.02065842927565058</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2149803549.792432</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2623165435.303066</v>
+        <v>3794849710.346994</v>
       </c>
       <c r="F28" t="n">
-        <v>0.100537301722474</v>
+        <v>0.1010232173822334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03041180842112025</v>
+        <v>0.04681007226425756</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1311582696.070477</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4343164564.026222</v>
+        <v>4851981924.265121</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1427192248629829</v>
+        <v>0.1298674163078846</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03500298995395312</v>
+        <v>0.02813443942749762</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2171582275.032485</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2115322050.34212</v>
+        <v>1979380843.100414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1228693695598458</v>
+        <v>0.09391561548028371</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02784549580170323</v>
+        <v>0.02540289762830703</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1057661075.632283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1333711569.761854</v>
+        <v>1493810260.611981</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09660378419207322</v>
+        <v>0.07956332815928351</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04286997547611144</v>
+        <v>0.04400668183623292</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666855704.7756368</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1802484898.162369</v>
+        <v>1310655854.521749</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060638293266197</v>
+        <v>0.0882059783413013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03234434447289012</v>
+        <v>0.03696765912051963</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>901242579.9567903</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2741100187.269594</v>
+        <v>2612056415.646486</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1708329266905307</v>
+        <v>0.131119781045079</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05894987878932843</v>
+        <v>0.05769141340650189</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1370550111.199229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1404902979.023211</v>
+        <v>1113113396.553355</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1128459610575911</v>
+        <v>0.09381220158111597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01717873117197896</v>
+        <v>0.02760967395175595</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702451460.8796836</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1086959088.295833</v>
+        <v>1206798711.957687</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170077254318816</v>
+        <v>0.07863947488682727</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03363326084815567</v>
+        <v>0.04151561675057634</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>543479543.5415745</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2194916708.427879</v>
+        <v>3061327070.884142</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1362792788423853</v>
+        <v>0.1281929895049516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02719811904442502</v>
+        <v>0.02298163583161369</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1097458400.524003</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2767495110.410779</v>
+        <v>2051856606.827933</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08054379378595065</v>
+        <v>0.0817755920761897</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0256234699627618</v>
+        <v>0.03835171406409186</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>17</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1383747687.965634</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1804780781.575371</v>
+        <v>1348198548.986676</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0836428515586557</v>
+        <v>0.115598629484858</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03562859377506546</v>
+        <v>0.02476607415162319</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>902390396.880201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1629321181.500273</v>
+        <v>1732619483.27875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1919337421514272</v>
+        <v>0.1758601667030973</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02460453602685593</v>
+        <v>0.02602442076701658</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>814660641.4432939</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596819285.917112</v>
+        <v>1300290165.065346</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1213463956786131</v>
+        <v>0.115905226946859</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04343159497417787</v>
+        <v>0.05542482663248784</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>798409584.8151388</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2126533970.092101</v>
+        <v>1768228316.798671</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1164807237220829</v>
+        <v>0.1036895809238762</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03245304189012838</v>
+        <v>0.04686202512099147</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1063267046.757151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4318215502.25625</v>
+        <v>4305181977.785601</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1200785522528915</v>
+        <v>0.08276992332046308</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04373598758817799</v>
+        <v>0.04522282982027567</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2159107802.218297</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2185409242.151041</v>
+        <v>2698997641.293897</v>
       </c>
       <c r="F43" t="n">
-        <v>0.182310221532182</v>
+        <v>0.1660733939075244</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01798573332066974</v>
+        <v>0.02340688865227981</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>20</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1092704701.255373</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1824441882.797124</v>
+        <v>2041750081.326688</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09941494104024551</v>
+        <v>0.08642080679749653</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02622070421948479</v>
+        <v>0.03347001297606579</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>912221012.5997531</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1846221885.865271</v>
+        <v>1959850828.013986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1237949247160504</v>
+        <v>0.1850243541736263</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03953571981819494</v>
+        <v>0.04816126011605928</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>923110918.1894182</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4094706810.837027</v>
+        <v>5567913963.941659</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1228667002732159</v>
+        <v>0.1393706874289578</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04318200056908818</v>
+        <v>0.05341871109847769</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2047353380.288525</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3795611132.013091</v>
+        <v>4577144461.347311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1997777974477708</v>
+        <v>0.1835960571385148</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05049391136414275</v>
+        <v>0.05781355900058352</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1897805553.429356</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3968486990.575845</v>
+        <v>4166612814.33263</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1041017378957419</v>
+        <v>0.07087046805487655</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0260437952548947</v>
+        <v>0.02616792088531192</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1984243531.371773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1640280431.459072</v>
+        <v>1947640772.445194</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1499334746674892</v>
+        <v>0.1557196821096808</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04334545888501921</v>
+        <v>0.03882076801004418</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>820140225.8285038</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3985226348.415806</v>
+        <v>4145750053.756412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1569864505420778</v>
+        <v>0.1328301677579867</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04926936745498165</v>
+        <v>0.04262109538591741</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>20</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1992613163.799434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1076552947.678562</v>
+        <v>1398077351.433861</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1505456028697977</v>
+        <v>0.1337471911753875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05263210471315627</v>
+        <v>0.04662851786222981</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>538276545.3002779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3370608435.272676</v>
+        <v>4996550337.945152</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1301542255175326</v>
+        <v>0.109774014931915</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04816730971653401</v>
+        <v>0.06105040030381519</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>25</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1685304311.053331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3389420644.958406</v>
+        <v>3490006635.817762</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1421690887913873</v>
+        <v>0.1889196674736363</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02892138966630854</v>
+        <v>0.02353891603358344</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1694710327.921426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3987050772.908504</v>
+        <v>3603351863.009655</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1365475190495444</v>
+        <v>0.1697563367060781</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03787601628672263</v>
+        <v>0.04418808791376942</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1993525449.391869</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4739128189.682867</v>
+        <v>3381914328.945713</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1952967945545455</v>
+        <v>0.221792300594143</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02602677053590321</v>
+        <v>0.02191326880312453</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2369564102.233812</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1811445303.492958</v>
+        <v>1784322037.918731</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1562125988429302</v>
+        <v>0.1408827544199645</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05038057678690271</v>
+        <v>0.05149419761173273</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>905722647.7872807</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2786096259.219233</v>
+        <v>3128552536.258458</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1109868472540692</v>
+        <v>0.1712282322537064</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02399592527983064</v>
+        <v>0.01710851744968364</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>19</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1393048115.966547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1622067524.849662</v>
+        <v>1275115683.837114</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1547590024589769</v>
+        <v>0.1287513174647938</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03978113415126838</v>
+        <v>0.03389213820016002</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>811033782.3130556</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3869664578.679683</v>
+        <v>4225700686.369648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113775703153086</v>
+        <v>0.1059047779286767</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03994366445369273</v>
+        <v>0.03119602971108768</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1934832271.458998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3533159975.90717</v>
+        <v>3043076862.551751</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1480902917350742</v>
+        <v>0.1601478258039681</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02072942922028682</v>
+        <v>0.02512814570759818</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1766580114.098867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2296110115.8195</v>
+        <v>2667740316.41954</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1197314592388257</v>
+        <v>0.1428264781988715</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02265538230522556</v>
+        <v>0.03249085202592005</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1148055104.643824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1649006509.616633</v>
+        <v>1671567199.546946</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1717210794684974</v>
+        <v>0.1421895130140902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04988244782490301</v>
+        <v>0.04978334231302214</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>824503260.1262959</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3553151407.477402</v>
+        <v>4087507050.258559</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08025161768671571</v>
+        <v>0.07397380814732642</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03462857453627835</v>
+        <v>0.03542646198085047</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1776575785.948344</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5319978590.211573</v>
+        <v>4341610672.098026</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1187429697585265</v>
+        <v>0.1365926433402774</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02376117971697023</v>
+        <v>0.03294693113525734</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>19</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2659989423.697731</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5275090387.524663</v>
+        <v>5986048337.764144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1171147865717352</v>
+        <v>0.1362194380173609</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03187305884825475</v>
+        <v>0.02588808504313053</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2637545136.133469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4138861471.148424</v>
+        <v>5085128902.516084</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1079306846766147</v>
+        <v>0.1315834947686435</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04227070003882059</v>
+        <v>0.0445144835598494</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2069430716.485967</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2414581148.935251</v>
+        <v>3202319555.936837</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08722184825261173</v>
+        <v>0.08511104980081075</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03573332889552603</v>
+        <v>0.04967998772874568</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1207290642.175658</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5876063934.631138</v>
+        <v>4197864680.701747</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09656095585308162</v>
+        <v>0.1466910161368887</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03473137506210379</v>
+        <v>0.048514520465206</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2938032076.657544</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1742848597.574973</v>
+        <v>1781488771.021619</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439698670568108</v>
+        <v>0.1409111111881306</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04423931680177311</v>
+        <v>0.04049057192588215</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>871424270.3975967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2307896761.501925</v>
+        <v>2764916531.205807</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07016129595981983</v>
+        <v>0.08500509655283781</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04075230053963219</v>
+        <v>0.03914760212815638</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1153948312.611449</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4946930303.291273</v>
+        <v>5301792070.642257</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1244615698083866</v>
+        <v>0.1709622711600975</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03052749185961287</v>
+        <v>0.02266191093158785</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2473465253.25526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1588266915.340447</v>
+        <v>1517420298.31882</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09753518318192229</v>
+        <v>0.07367787299275767</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0496242346172738</v>
+        <v>0.04088701112499095</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>794133470.3102566</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3139744677.427341</v>
+        <v>2163519460.457352</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07870421746467823</v>
+        <v>0.0900068713544839</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03443589093444594</v>
+        <v>0.04430055306143117</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>24</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1569872321.807525</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2755004474.547138</v>
+        <v>3328808546.143789</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1251590621199748</v>
+        <v>0.1372792501519777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03506159687437962</v>
+        <v>0.02912882959164201</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1377502323.698718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1518878712.66889</v>
+        <v>1536944548.870925</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1135977945100229</v>
+        <v>0.1111152306560725</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03050142091866337</v>
+        <v>0.0352210808551879</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>759439365.4936123</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3616469204.465408</v>
+        <v>4326377126.227705</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09809081756237521</v>
+        <v>0.1031663618641149</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02325519579494851</v>
+        <v>0.02363420478390156</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1808234570.757628</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1678231243.793311</v>
+        <v>1812212686.010381</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1751018335138182</v>
+        <v>0.1562354852551627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01936785078214032</v>
+        <v>0.02231631949855661</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>839115635.7881715</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4680556336.229213</v>
+        <v>4339825911.646537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0950182355978204</v>
+        <v>0.09796980799011029</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05229736056615604</v>
+        <v>0.0421413502485493</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>22</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2340278084.960852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1397124062.923336</v>
+        <v>1858636277.979565</v>
       </c>
       <c r="F79" t="n">
-        <v>0.119211266777661</v>
+        <v>0.1227826357957295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03926958604953992</v>
+        <v>0.03304803218929073</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>698562047.536163</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4644901025.740056</v>
+        <v>5576823802.472746</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08617965898320253</v>
+        <v>0.07779068942650781</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02641212419910846</v>
+        <v>0.03394066630433856</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2322450544.300665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3963264373.8528</v>
+        <v>3828087010.154175</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104311857873103</v>
+        <v>0.1062246910699173</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02804508508878113</v>
+        <v>0.02790134321372442</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1981632148.654173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4484384512.637544</v>
+        <v>5235049595.202936</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2106011972908946</v>
+        <v>0.1938755089183412</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02050194248685963</v>
+        <v>0.02317287481773193</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>22</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2242192268.926052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2051050591.218178</v>
+        <v>2140222690.132392</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1283055884314418</v>
+        <v>0.1112491506238113</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04065008162582476</v>
+        <v>0.03522418124378512</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1025525287.181444</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1645589904.133034</v>
+        <v>1675486017.764994</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08636208918785002</v>
+        <v>0.1156337779178366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0350973925353036</v>
+        <v>0.04506601435101941</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>822795008.8504401</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3273694135.518141</v>
+        <v>2679156168.362381</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1131610861859195</v>
+        <v>0.1746248236004781</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03462557989259036</v>
+        <v>0.0494595564860723</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>23</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1636847158.021106</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979676268.341187</v>
+        <v>1772479746.380766</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1049043751200092</v>
+        <v>0.1427979190846384</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0204751356267971</v>
+        <v>0.02678057175777509</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>989838158.8342153</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>998261104.6325111</v>
+        <v>914661976.8738559</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1208913373625267</v>
+        <v>0.1290923063836989</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03006371180197876</v>
+        <v>0.02676762152563186</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>499130556.0531285</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2604164887.008518</v>
+        <v>2814027442.72927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1423546064131559</v>
+        <v>0.1124104219697184</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03020379926176922</v>
+        <v>0.0332220622374408</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>24</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1302082434.736913</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3494420982.028647</v>
+        <v>3238561905.556049</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1566060268343807</v>
+        <v>0.1428389174634962</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03122029865683454</v>
+        <v>0.04071509461761313</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1747210492.755223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1858844014.121262</v>
+        <v>1343455278.90953</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09514399126171813</v>
+        <v>0.1188949999771122</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05082696134159639</v>
+        <v>0.04886023363806541</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>929422051.3571514</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1752639613.815663</v>
+        <v>1426911238.927871</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1613028609679903</v>
+        <v>0.1459513586116727</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05444222354065816</v>
+        <v>0.04887935641178295</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>876319812.0338953</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2510784959.27611</v>
+        <v>1941779901.242633</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0908445451692929</v>
+        <v>0.1005263241459781</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03264885534967151</v>
+        <v>0.0357145208707396</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1255392464.288772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3867384310.744926</v>
+        <v>4339222383.894306</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1210079914307825</v>
+        <v>0.09826540296112256</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04123473470022261</v>
+        <v>0.04741266879532176</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>18</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1933692164.460937</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2279892959.969227</v>
+        <v>2104671013.88131</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1152369503249095</v>
+        <v>0.1369338584132447</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03587496555265263</v>
+        <v>0.03963332878921213</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1139946514.642021</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2680769316.340919</v>
+        <v>2556581907.02407</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1286540436633128</v>
+        <v>0.1188172701964975</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04133061493387773</v>
+        <v>0.05110334250448927</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1340384680.996101</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2196802769.856363</v>
+        <v>2123709454.991732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1189325206267691</v>
+        <v>0.1281159551553125</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03411256498668216</v>
+        <v>0.04307551070441551</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1098401350.787439</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5328331280.625325</v>
+        <v>3583694025.257552</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1515419320043479</v>
+        <v>0.1579450487500292</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02874808669709517</v>
+        <v>0.02924754678977154</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2664165803.401384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3460145677.359611</v>
+        <v>3044752606.753842</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216702492104159</v>
+        <v>0.1167248529232524</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02668092300951258</v>
+        <v>0.02324779558199931</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1730072854.469041</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2226560708.315414</v>
+        <v>3356072286.064082</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1333274678341917</v>
+        <v>0.111130732796339</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03330301725646873</v>
+        <v>0.03055769868369669</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1113280283.951149</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3313716603.895135</v>
+        <v>3506954277.22512</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1626902812432711</v>
+        <v>0.1245402368139879</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0263024815033244</v>
+        <v>0.02055062293808135</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>18</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1656858317.739201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2202006584.224187</v>
+        <v>2290666075.673234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2207210085938495</v>
+        <v>0.1948705588253127</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03562466507562372</v>
+        <v>0.04503391454743621</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1101003275.596658</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_61.xlsx
+++ b/output/fit_clients/fit_round_61.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2018430112.775959</v>
+        <v>1968553416.151172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1129876935784356</v>
+        <v>0.09884163437948615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04549072832190978</v>
+        <v>0.0397951487806712</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1794547403.952553</v>
+        <v>2608690410.636571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.154601401941969</v>
+        <v>0.1401060456382331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04603866537898748</v>
+        <v>0.03277974716787481</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3763538755.124178</v>
+        <v>3931865810.234355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1105656063406037</v>
+        <v>0.1596534333847476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02614805943522577</v>
+        <v>0.03144441751889263</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4212934760.322126</v>
+        <v>3863860216.809526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08077496296487144</v>
+        <v>0.09433330729540806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03171784134078707</v>
+        <v>0.04489331686415608</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1906213151.514312</v>
+        <v>2611987365.516048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1049716983038883</v>
+        <v>0.1329652053885906</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05567235548118318</v>
+        <v>0.04336676218039254</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2324379469.005121</v>
+        <v>2712935167.092888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07492666626259649</v>
+        <v>0.08418576000906453</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03020707505669477</v>
+        <v>0.03636940030529024</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3495600995.222842</v>
+        <v>2971505249.676835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1500633148320401</v>
+        <v>0.2070772673807622</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02623896123005168</v>
+        <v>0.02591856201640737</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1680348206.458302</v>
+        <v>1677409404.661327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1812103944977916</v>
+        <v>0.1717158914957663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02784756529245272</v>
+        <v>0.02316201408585818</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4570114591.605577</v>
+        <v>4659496018.652617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2111681436043177</v>
+        <v>0.1795395002990728</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04538348614307582</v>
+        <v>0.03569013620324353</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2960627785.546042</v>
+        <v>4137928092.110679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1323030825633331</v>
+        <v>0.1201903400253368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0406259238605965</v>
+        <v>0.04474152515115487</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2670535235.186067</v>
+        <v>2157125137.659128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1560118891037074</v>
+        <v>0.1671649432566362</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04175821940095843</v>
+        <v>0.03689639956513377</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3916964118.583291</v>
+        <v>5142610327.020379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09800899718587226</v>
+        <v>0.07422542313901656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02134196249560063</v>
+        <v>0.02072134746728254</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3699006847.724956</v>
+        <v>3175994534.450545</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368145411688986</v>
+        <v>0.1158394180489878</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04096630328357182</v>
+        <v>0.03037746717627489</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1409952921.340339</v>
+        <v>1666929282.56815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1027007452354007</v>
+        <v>0.1045792526706172</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04951118959632292</v>
+        <v>0.03027584605791554</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2801144976.458163</v>
+        <v>2212624845.054657</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064170820980539</v>
+        <v>0.09782422835791227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03526124362024645</v>
+        <v>0.04839492958909066</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4409622483.207839</v>
+        <v>4300225264.53809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1688820257386555</v>
+        <v>0.134057960578707</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03990907021453058</v>
+        <v>0.05137821569116249</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3476183504.576579</v>
+        <v>3976191790.443563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1472653857521663</v>
+        <v>0.1182800125985754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02414881860365089</v>
+        <v>0.0212556128907591</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212049739.277217</v>
+        <v>1173693910.286603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1867765093741272</v>
+        <v>0.1255667269640972</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01768958295704025</v>
+        <v>0.02467094143054685</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2378202890.827393</v>
+        <v>2665683445.957254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1547983162365804</v>
+        <v>0.1161176252478958</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02058198823390966</v>
+        <v>0.02324772682665599</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1850681060.855605</v>
+        <v>2014250257.946783</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06570285195300776</v>
+        <v>0.08066891540518643</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03898636119616736</v>
+        <v>0.03430052120997104</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2832891731.546948</v>
+        <v>3506516187.271407</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1427088593915004</v>
+        <v>0.1180387914019796</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03554138571212175</v>
+        <v>0.04863150387892298</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>982323151.5476739</v>
+        <v>1020034915.520045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1801141972614087</v>
+        <v>0.1602146144354066</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04670994961009495</v>
+        <v>0.04581961354118507</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4011266626.841387</v>
+        <v>4024015093.419315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1122835058371125</v>
+        <v>0.09660653502951654</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02963930795235035</v>
+        <v>0.02916460207208856</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1002720434.296849</v>
+        <v>1146034925.343019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11503447036494</v>
+        <v>0.08245565760289322</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02219898552422672</v>
+        <v>0.02750283137278401</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1435341983.254542</v>
+        <v>1106621266.02258</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09771382414913625</v>
+        <v>0.0995043491785115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02398724567517454</v>
+        <v>0.03049144955985699</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4009481625.580821</v>
+        <v>4553137204.484632</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1171986343527371</v>
+        <v>0.1003880335458147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02065842927565058</v>
+        <v>0.0172225093423775</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3794849710.346994</v>
+        <v>2524532794.642513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1010232173822334</v>
+        <v>0.1502570070238006</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04681007226425756</v>
+        <v>0.04048805609800592</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4851981924.265121</v>
+        <v>5930886055.483187</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1298674163078846</v>
+        <v>0.1409235643243477</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02813443942749762</v>
+        <v>0.03376049173689998</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1979380843.100414</v>
+        <v>1593406235.629191</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09391561548028371</v>
+        <v>0.1200288733023872</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02540289762830703</v>
+        <v>0.03678670709808718</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1493810260.611981</v>
+        <v>1447134029.412018</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07956332815928351</v>
+        <v>0.1123003599037375</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04400668183623292</v>
+        <v>0.05206830232669328</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1310655854.521749</v>
+        <v>1158788706.3026</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0882059783413013</v>
+        <v>0.1062618346561731</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03696765912051963</v>
+        <v>0.03358430097570075</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2612056415.646486</v>
+        <v>2007130059.172211</v>
       </c>
       <c r="F33" t="n">
-        <v>0.131119781045079</v>
+        <v>0.1953764804300957</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05769141340650189</v>
+        <v>0.05458653375677279</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1113113396.553355</v>
+        <v>1323913690.838781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09381220158111597</v>
+        <v>0.08888818181168963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02760967395175595</v>
+        <v>0.01785349507299806</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206798711.957687</v>
+        <v>983327803.2282997</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07863947488682727</v>
+        <v>0.08232888495387376</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04151561675057634</v>
+        <v>0.02950192513124313</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3061327070.884142</v>
+        <v>2564605769.623508</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1281929895049516</v>
+        <v>0.1418110850502817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02298163583161369</v>
+        <v>0.02241949193477761</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2051856606.827933</v>
+        <v>1804376581.927372</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0817755920761897</v>
+        <v>0.1020406257970888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03835171406409186</v>
+        <v>0.03923898894670608</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1348198548.986676</v>
+        <v>1718858240.786755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.115598629484858</v>
+        <v>0.08050869109496041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02476607415162319</v>
+        <v>0.02508473083406896</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1732619483.27875</v>
+        <v>1568642769.628635</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1758601667030973</v>
+        <v>0.1294355745667743</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02602442076701658</v>
+        <v>0.03204617900750877</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1300290165.065346</v>
+        <v>1546070032.210433</v>
       </c>
       <c r="F40" t="n">
-        <v>0.115905226946859</v>
+        <v>0.1375308081456785</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05542482663248784</v>
+        <v>0.04910363449674982</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1768228316.798671</v>
+        <v>1949809198.584378</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1036895809238762</v>
+        <v>0.128518174562185</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04686202512099147</v>
+        <v>0.03783140236523767</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4305181977.785601</v>
+        <v>2971407960.382709</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08276992332046308</v>
+        <v>0.1212613314865801</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04522282982027567</v>
+        <v>0.02916408985925104</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2698997641.293897</v>
+        <v>2802137106.099209</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1660733939075244</v>
+        <v>0.1398873688055114</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02340688865227981</v>
+        <v>0.01893752150357351</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2041750081.326688</v>
+        <v>1932559299.629074</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08642080679749653</v>
+        <v>0.09282944132452237</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03347001297606579</v>
+        <v>0.02285388798478687</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1959850828.013986</v>
+        <v>2321140156.848833</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1850243541736263</v>
+        <v>0.1840161076834914</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04816126011605928</v>
+        <v>0.04202919190006544</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5567913963.941659</v>
+        <v>5072440252.598602</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1393706874289578</v>
+        <v>0.1517685562008237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05341871109847769</v>
+        <v>0.05187114643447219</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4577144461.347311</v>
+        <v>4074039476.16613</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1835960571385148</v>
+        <v>0.1691199970117668</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05781355900058352</v>
+        <v>0.04827071773951957</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4166612814.33263</v>
+        <v>3878515739.015985</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07087046805487655</v>
+        <v>0.07475725249586611</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02616792088531192</v>
+        <v>0.02388617074688165</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1947640772.445194</v>
+        <v>1324683297.394894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1557196821096808</v>
+        <v>0.1550528761882038</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03882076801004418</v>
+        <v>0.04166573335618411</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4145750053.756412</v>
+        <v>4099615409.26528</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1328301677579867</v>
+        <v>0.1448697392950983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04262109538591741</v>
+        <v>0.04205922051480324</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1398077351.433861</v>
+        <v>955914967.1896839</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1337471911753875</v>
+        <v>0.1193096786520772</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04662851786222981</v>
+        <v>0.03330669566600352</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4996550337.945152</v>
+        <v>4160374434.139105</v>
       </c>
       <c r="F52" t="n">
-        <v>0.109774014931915</v>
+        <v>0.1092629523838333</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06105040030381519</v>
+        <v>0.05116912384055384</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3490006635.817762</v>
+        <v>3584640118.117493</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1889196674736363</v>
+        <v>0.1831178972659572</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02353891603358344</v>
+        <v>0.02298768252576626</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3603351863.009655</v>
+        <v>4713753245.706203</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1697563367060781</v>
+        <v>0.1680170524716397</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04418808791376942</v>
+        <v>0.03946493844085544</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3381914328.945713</v>
+        <v>3652324728.360583</v>
       </c>
       <c r="F55" t="n">
-        <v>0.221792300594143</v>
+        <v>0.1967078380339796</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02191326880312453</v>
+        <v>0.02960694136780231</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1784322037.918731</v>
+        <v>1358614446.348778</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1408827544199645</v>
+        <v>0.1595045255673679</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05149419761173273</v>
+        <v>0.05503196800299329</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3128552536.258458</v>
+        <v>4050154645.856946</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1712282322537064</v>
+        <v>0.1112598249781493</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01710851744968364</v>
+        <v>0.02653339662828533</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1275115683.837114</v>
+        <v>1687256271.275295</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1287513174647938</v>
+        <v>0.1334974370416467</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03389213820016002</v>
+        <v>0.037172094903201</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4225700686.369648</v>
+        <v>3659706563.228941</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1059047779286767</v>
+        <v>0.1217762820141854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03119602971108768</v>
+        <v>0.03406637578146582</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3043076862.551751</v>
+        <v>2423259510.310622</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1601478258039681</v>
+        <v>0.1868730694235373</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02512814570759818</v>
+        <v>0.02703822143471633</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2667740316.41954</v>
+        <v>2586611968.617235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1428264781988715</v>
+        <v>0.18033602625671</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03249085202592005</v>
+        <v>0.02380005806897098</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1671567199.546946</v>
+        <v>1885241061.047489</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1421895130140902</v>
+        <v>0.1471114597843572</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04978334231302214</v>
+        <v>0.04717488609440236</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4087507050.258559</v>
+        <v>3744920809.580458</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07397380814732642</v>
+        <v>0.09527902517582479</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03542646198085047</v>
+        <v>0.03621544685205862</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4341610672.098026</v>
+        <v>3401600982.578574</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1365926433402774</v>
+        <v>0.1707784991601257</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03294693113525734</v>
+        <v>0.02999096256719063</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5986048337.764144</v>
+        <v>4180359787.422299</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1362194380173609</v>
+        <v>0.1342639828618891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02588808504313053</v>
+        <v>0.03019837725621113</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5085128902.516084</v>
+        <v>4120648967.09385</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1315834947686435</v>
+        <v>0.1605125951303029</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0445144835598494</v>
+        <v>0.03666134485367329</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3202319555.936837</v>
+        <v>2470817352.976081</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08511104980081075</v>
+        <v>0.1015793954277243</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04967998772874568</v>
+        <v>0.04321845655015186</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4197864680.701747</v>
+        <v>4104412717.030723</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1466910161368887</v>
+        <v>0.108656221732771</v>
       </c>
       <c r="G68" t="n">
-        <v>0.048514520465206</v>
+        <v>0.04734033127940303</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1781488771.021619</v>
+        <v>2481298777.54437</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1409111111881306</v>
+        <v>0.1519635722965755</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04049057192588215</v>
+        <v>0.05893643487668444</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2764916531.205807</v>
+        <v>2924656298.741327</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08500509655283781</v>
+        <v>0.06621634336781217</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03914760212815638</v>
+        <v>0.03290141030395818</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5301792070.642257</v>
+        <v>4388821119.417094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1709622711600975</v>
+        <v>0.185729212657875</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02266191093158785</v>
+        <v>0.03248914575050035</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1517420298.31882</v>
+        <v>2208185713.722443</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07367787299275767</v>
+        <v>0.07236584915843911</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04088701112499095</v>
+        <v>0.03316505642440691</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2163519460.457352</v>
+        <v>2639444948.373774</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0900068713544839</v>
+        <v>0.1104999154353202</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04430055306143117</v>
+        <v>0.04320641398376345</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3328808546.143789</v>
+        <v>3417825766.863639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1372792501519777</v>
+        <v>0.1546054010402191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02912882959164201</v>
+        <v>0.02861689281302994</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1536944548.870925</v>
+        <v>1634862071.74494</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1111152306560725</v>
+        <v>0.1134298664719357</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0352210808551879</v>
+        <v>0.02780405399195551</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4326377126.227705</v>
+        <v>4574949310.825335</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1031663618641149</v>
+        <v>0.08948138302400777</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02363420478390156</v>
+        <v>0.02644609923863573</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812212686.010381</v>
+        <v>2307694421.607583</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1562354852551627</v>
+        <v>0.1865745496036826</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02231631949855661</v>
+        <v>0.02153005893266818</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4339825911.646537</v>
+        <v>3194730641.723629</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09796980799011029</v>
+        <v>0.12706946926156</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0421413502485493</v>
+        <v>0.03493908600088986</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1858636277.979565</v>
+        <v>1642683896.507661</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1227826357957295</v>
+        <v>0.1391597902282331</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03304803218929073</v>
+        <v>0.03970362986400973</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5576823802.472746</v>
+        <v>4830258939.849471</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07779068942650781</v>
+        <v>0.09744717882240098</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03394066630433856</v>
+        <v>0.03416296241241515</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3828087010.154175</v>
+        <v>3153034155.875169</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1062246910699173</v>
+        <v>0.1026297393046872</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02790134321372442</v>
+        <v>0.02458217674681028</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5235049595.202936</v>
+        <v>4640396793.163441</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1938755089183412</v>
+        <v>0.209932470278375</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02317287481773193</v>
+        <v>0.01831201940567739</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2140222690.132392</v>
+        <v>1827178839.43698</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1112491506238113</v>
+        <v>0.1198494982687148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03522418124378512</v>
+        <v>0.02935977551119215</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1675486017.764994</v>
+        <v>1783257477.227412</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156337779178366</v>
+        <v>0.0747307099049372</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04506601435101941</v>
+        <v>0.04801204626520713</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2679156168.362381</v>
+        <v>2983379916.42526</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1746248236004781</v>
+        <v>0.1154178764794798</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0494595564860723</v>
+        <v>0.04031741899459497</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1772479746.380766</v>
+        <v>2779284870.518571</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1427979190846384</v>
+        <v>0.1554684115264437</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02678057175777509</v>
+        <v>0.02692677738168588</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>914661976.8738559</v>
+        <v>1478493625.451223</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1290923063836989</v>
+        <v>0.1378745582090174</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02676762152563186</v>
+        <v>0.04139678336076009</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2814027442.72927</v>
+        <v>2462038135.888087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1124104219697184</v>
+        <v>0.1302476663439194</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0332220622374408</v>
+        <v>0.02688010218770653</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3238561905.556049</v>
+        <v>2307530500.051251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1428389174634962</v>
+        <v>0.1084444189524324</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04071509461761313</v>
+        <v>0.02919976645946387</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1343455278.90953</v>
+        <v>1670466714.529564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1188949999771122</v>
+        <v>0.1170614836528554</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04886023363806541</v>
+        <v>0.03720382268814065</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1426911238.927871</v>
+        <v>1731293927.625484</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1459513586116727</v>
+        <v>0.1893994233292643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04887935641178295</v>
+        <v>0.03977265219922525</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1941779901.242633</v>
+        <v>2992798116.730985</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1005263241459781</v>
+        <v>0.07719189431803686</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0357145208707396</v>
+        <v>0.04069064399272002</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4339222383.894306</v>
+        <v>4694515045.529255</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09826540296112256</v>
+        <v>0.1409110555511987</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04741266879532176</v>
+        <v>0.04561040778037038</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2104671013.88131</v>
+        <v>2133177693.312417</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1369338584132447</v>
+        <v>0.1353034052910152</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03963332878921213</v>
+        <v>0.03874557047161424</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2556581907.02407</v>
+        <v>2347134465.808491</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1188172701964975</v>
+        <v>0.09414808345645301</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05110334250448927</v>
+        <v>0.04694432203006894</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2123709454.991732</v>
+        <v>2196855895.63552</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281159551553125</v>
+        <v>0.08955730420785864</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04307551070441551</v>
+        <v>0.04333083576595727</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3583694025.257552</v>
+        <v>3491304102.483588</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1579450487500292</v>
+        <v>0.1720347392803082</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02924754678977154</v>
+        <v>0.02179315504097177</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3044752606.753842</v>
+        <v>3514518398.845453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167248529232524</v>
+        <v>0.1280877184912307</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02324779558199931</v>
+        <v>0.02244091406932957</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3356072286.064082</v>
+        <v>3235457227.329607</v>
       </c>
       <c r="F99" t="n">
-        <v>0.111130732796339</v>
+        <v>0.1045787384451468</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03055769868369669</v>
+        <v>0.03384581566016064</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3506954277.22512</v>
+        <v>4706652101.988789</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1245402368139879</v>
+        <v>0.118114165285744</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02055062293808135</v>
+        <v>0.01935409441479483</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2290666075.673234</v>
+        <v>2709911882.779026</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1948705588253127</v>
+        <v>0.2013503189100335</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04503391454743621</v>
+        <v>0.05758556564280284</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_61.xlsx
+++ b/output/fit_clients/fit_round_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1968553416.151172</v>
+        <v>1539451724.125782</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09884163437948615</v>
+        <v>0.1113720491576055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397951487806712</v>
+        <v>0.04064051536081806</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2608690410.636571</v>
+        <v>2570899725.304797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1401060456382331</v>
+        <v>0.1197147923621018</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03277974716787481</v>
+        <v>0.04738419090170408</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3931865810.234355</v>
+        <v>3983438388.942808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1596534333847476</v>
+        <v>0.147940294168183</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03144441751889263</v>
+        <v>0.0292181180763128</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3863860216.809526</v>
+        <v>3273049003.452248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09433330729540806</v>
+        <v>0.1056327576919608</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04489331686415608</v>
+        <v>0.03346509543880537</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="n">
+        <v>155.9154549538401</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2611987365.516048</v>
+        <v>2675179771.107929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1329652053885906</v>
+        <v>0.1312564817430944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04336676218039254</v>
+        <v>0.05473400087241349</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2712935167.092888</v>
+        <v>2131809615.75609</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08418576000906453</v>
+        <v>0.06531072418313694</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03636940030529024</v>
+        <v>0.03296977463912385</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2971505249.676835</v>
+        <v>3082072429.416322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2070772673807622</v>
+        <v>0.1864709763815709</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02591856201640737</v>
+        <v>0.0321422136231819</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1677409404.661327</v>
+        <v>2200211466.896283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1717158914957663</v>
+        <v>0.1398825893783803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02316201408585818</v>
+        <v>0.03340176081224684</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4659496018.652617</v>
+        <v>5299900614.274487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1795395002990728</v>
+        <v>0.213236737968471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03569013620324353</v>
+        <v>0.0452409006323911</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>56</v>
+      </c>
+      <c r="J10" t="n">
+        <v>61</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4137928092.110679</v>
+        <v>3812913095.127566</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1201903400253368</v>
+        <v>0.1171138264272699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04474152515115487</v>
+        <v>0.03926985975839303</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2157125137.659128</v>
+        <v>3314637364.246118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1671649432566362</v>
+        <v>0.1589592866324318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03689639956513377</v>
+        <v>0.04698853543087296</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5142610327.020379</v>
+        <v>3257393363.413367</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07422542313901656</v>
+        <v>0.08462288978335128</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02072134746728254</v>
+        <v>0.02627064372780194</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60</v>
+      </c>
+      <c r="K13" t="n">
+        <v>146.0055267525837</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3175994534.450545</v>
+        <v>2354576759.006995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1158394180489878</v>
+        <v>0.1531980508937176</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03037746717627489</v>
+        <v>0.03597910060174119</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1666929282.56815</v>
+        <v>1213202290.263669</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1045792526706172</v>
+        <v>0.1029171978866495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03027584605791554</v>
+        <v>0.03029852765040169</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2212624845.054657</v>
+        <v>2386515989.294922</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09782422835791227</v>
+        <v>0.09608450593378233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04839492958909066</v>
+        <v>0.03918715860814539</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4300225264.53809</v>
+        <v>3904142763.983289</v>
       </c>
       <c r="F17" t="n">
-        <v>0.134057960578707</v>
+        <v>0.1350068182502846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05137821569116249</v>
+        <v>0.03533232715748875</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>61</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3976191790.443563</v>
+        <v>3863099258.368106</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1182800125985754</v>
+        <v>0.1671521938258462</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0212556128907591</v>
+        <v>0.02279370929526481</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>61</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1173693910.286603</v>
+        <v>1015594772.042131</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1255667269640972</v>
+        <v>0.1828045293273749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02467094143054685</v>
+        <v>0.02069670970598746</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2665683445.957254</v>
+        <v>2045106678.288304</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1161176252478958</v>
+        <v>0.1108992456937776</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02324772682665599</v>
+        <v>0.03128273809803046</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2014250257.946783</v>
+        <v>2497535955.133327</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08066891540518643</v>
+        <v>0.07668489632268913</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03430052120997104</v>
+        <v>0.03124005198750006</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3506516187.271407</v>
+        <v>2565069959.87128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1180387914019796</v>
+        <v>0.1000793364860361</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04863150387892298</v>
+        <v>0.0392101644823326</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1020034915.520045</v>
+        <v>994555753.7554151</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602146144354066</v>
+        <v>0.1610728826531965</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04581961354118507</v>
+        <v>0.0537207702102412</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4024015093.419315</v>
+        <v>3934936579.814878</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09660653502951654</v>
+        <v>0.09765935238007313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02916460207208856</v>
+        <v>0.03700206296001556</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1146034925.343019</v>
+        <v>1356206139.233427</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08245565760289322</v>
+        <v>0.09119960732639554</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02750283137278401</v>
+        <v>0.02176737284221335</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1106621266.02258</v>
+        <v>1174640533.026258</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0995043491785115</v>
+        <v>0.1174317403097341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03049144955985699</v>
+        <v>0.0321308032232313</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4553137204.484632</v>
+        <v>3907994133.114697</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1003880335458147</v>
+        <v>0.1467593801778537</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0172225093423775</v>
+        <v>0.01646324552700398</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>60</v>
+      </c>
+      <c r="K27" t="n">
+        <v>160.0903185907082</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1417,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2524532794.642513</v>
+        <v>3490651458.25174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1502570070238006</v>
+        <v>0.1251145831457566</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04048805609800592</v>
+        <v>0.03995843691362928</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>60</v>
+      </c>
+      <c r="K28" t="n">
+        <v>169.2569639816706</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5930886055.483187</v>
+        <v>3672989879.205494</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1409235643243477</v>
+        <v>0.1236702957607759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03376049173689998</v>
+        <v>0.0301454943850967</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>56</v>
+      </c>
+      <c r="J29" t="n">
+        <v>61</v>
+      </c>
+      <c r="K29" t="n">
+        <v>213.7766858096049</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1593406235.629191</v>
+        <v>1448880292.878901</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1200288733023872</v>
+        <v>0.0988109621746996</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03678670709808718</v>
+        <v>0.02801974238148302</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1447134029.412018</v>
+        <v>1212917952.675086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1123003599037375</v>
+        <v>0.1070392099847143</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05206830232669328</v>
+        <v>0.04656937380135168</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1158788706.3026</v>
+        <v>1816815746.139936</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062618346561731</v>
+        <v>0.106609745258978</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03358430097570075</v>
+        <v>0.0245704334560793</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2007130059.172211</v>
+        <v>2645728637.469625</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1953764804300957</v>
+        <v>0.1555176310333289</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05458653375677279</v>
+        <v>0.05662602890878849</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323913690.838781</v>
+        <v>1136375825.755162</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08888818181168963</v>
+        <v>0.1202549662628132</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01785349507299806</v>
+        <v>0.02763740111490183</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>983327803.2282997</v>
+        <v>992896085.5909313</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08232888495387376</v>
+        <v>0.1131854809267904</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02950192513124313</v>
+        <v>0.04217291840782326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2564605769.623508</v>
+        <v>2840902231.670382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1418110850502817</v>
+        <v>0.1255335128755379</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02241949193477761</v>
+        <v>0.02734356961834138</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1804376581.927372</v>
+        <v>2380285516.462512</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1020406257970888</v>
+        <v>0.08847812484893264</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03923898894670608</v>
+        <v>0.02858742319536812</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1718858240.786755</v>
+        <v>2054971260.522671</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08050869109496041</v>
+        <v>0.1029958513468798</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02508473083406896</v>
+        <v>0.03536425592454417</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1568642769.628635</v>
+        <v>1981072416.777317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1294355745667743</v>
+        <v>0.1190569332466729</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03204617900750877</v>
+        <v>0.02217555903553593</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1546070032.210433</v>
+        <v>1168369840.711869</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1375308081456785</v>
+        <v>0.1181976915258652</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04910363449674982</v>
+        <v>0.04360444033379519</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1949809198.584378</v>
+        <v>1858581949.818169</v>
       </c>
       <c r="F41" t="n">
-        <v>0.128518174562185</v>
+        <v>0.1611856794844192</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03783140236523767</v>
+        <v>0.03703582717443666</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2971407960.382709</v>
+        <v>4284508887.451389</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212613314865801</v>
+        <v>0.1145470155618735</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02916408985925104</v>
+        <v>0.04281130193696159</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="n">
+        <v>190.2404580503449</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2802137106.099209</v>
+        <v>1987613984.935234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1398873688055114</v>
+        <v>0.1807900489477094</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01893752150357351</v>
+        <v>0.02079777770055239</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1932559299.629074</v>
+        <v>2276928224.05064</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09282944132452237</v>
+        <v>0.09226801657479905</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02285388798478687</v>
+        <v>0.02910176502096392</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321140156.848833</v>
+        <v>2065764991.342341</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1840161076834914</v>
+        <v>0.1404517753887801</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04202919190006544</v>
+        <v>0.04642669497430645</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5072440252.598602</v>
+        <v>3772810817.238988</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1517685562008237</v>
+        <v>0.1145640777336311</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05187114643447219</v>
+        <v>0.05162816278330343</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>36</v>
+      </c>
+      <c r="J46" t="n">
+        <v>61</v>
+      </c>
+      <c r="K46" t="n">
+        <v>192.3944800641913</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4074039476.16613</v>
+        <v>5116190204.610111</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1691199970117668</v>
+        <v>0.1631803858749039</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04827071773951957</v>
+        <v>0.0464703069143528</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>61</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3878515739.015985</v>
+        <v>3719519228.742239</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07475725249586611</v>
+        <v>0.106442374401176</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02388617074688165</v>
+        <v>0.02794438430191289</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>59</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1324683297.394894</v>
+        <v>1598817773.95658</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1550528761882038</v>
+        <v>0.1432249216251082</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04166573335618411</v>
+        <v>0.03194951784712356</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4099615409.26528</v>
+        <v>3289796574.792112</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1448697392950983</v>
+        <v>0.1190708681646829</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04205922051480324</v>
+        <v>0.04636339078602202</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>60</v>
+      </c>
+      <c r="K50" t="n">
+        <v>147.6626439092757</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>955914967.1896839</v>
+        <v>1452412364.19997</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193096786520772</v>
+        <v>0.1650944434165805</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03330669566600352</v>
+        <v>0.03530826815014677</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4160374434.139105</v>
+        <v>4907327981.131308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092629523838333</v>
+        <v>0.1246084465801019</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05116912384055384</v>
+        <v>0.05916479086045697</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49</v>
+      </c>
+      <c r="J52" t="n">
+        <v>61</v>
+      </c>
+      <c r="K52" t="n">
+        <v>205.1038234874462</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3584640118.117493</v>
+        <v>3103616611.807972</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1831178972659572</v>
+        <v>0.1781708003224044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02298768252576626</v>
+        <v>0.02363103595622478</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4713753245.706203</v>
+        <v>3824436240.412212</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1680170524716397</v>
+        <v>0.1096992666634014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03946493844085544</v>
+        <v>0.03445041062116429</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>61</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3652324728.360583</v>
+        <v>3335033161.667721</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1967078380339796</v>
+        <v>0.2125577526966831</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02960694136780231</v>
+        <v>0.02756687702926469</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>28</v>
+      </c>
+      <c r="J55" t="n">
+        <v>60</v>
+      </c>
+      <c r="K55" t="n">
+        <v>134.3656394450073</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1358614446.348778</v>
+        <v>1824820191.542852</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1595045255673679</v>
+        <v>0.1431292076303453</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05503196800299329</v>
+        <v>0.05203318341113068</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4050154645.856946</v>
+        <v>4037978179.013554</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1112598249781493</v>
+        <v>0.1697574107803799</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02653339662828533</v>
+        <v>0.01779432000568424</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>60</v>
+      </c>
+      <c r="K57" t="n">
+        <v>183.5108890932747</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1687256271.275295</v>
+        <v>1314722730.98131</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1334974370416467</v>
+        <v>0.1440854433141094</v>
       </c>
       <c r="G58" t="n">
-        <v>0.037172094903201</v>
+        <v>0.03065225858986586</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3659706563.228941</v>
+        <v>5049293024.137554</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1217762820141854</v>
+        <v>0.1176554969126129</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03406637578146582</v>
+        <v>0.03701650100600658</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29</v>
+      </c>
+      <c r="J59" t="n">
+        <v>61</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2423259510.310622</v>
+        <v>3611475505.308167</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1868730694235373</v>
+        <v>0.1604147309761938</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02703822143471633</v>
+        <v>0.02115629606116653</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2586611968.617235</v>
+        <v>3224630457.272151</v>
       </c>
       <c r="F61" t="n">
-        <v>0.18033602625671</v>
+        <v>0.1706518172160797</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02380005806897098</v>
+        <v>0.02502351471035374</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1885241061.047489</v>
+        <v>1468420534.799709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1471114597843572</v>
+        <v>0.1775308394589537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04717488609440236</v>
+        <v>0.03216507245404949</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3744920809.580458</v>
+        <v>3808377213.231049</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09527902517582479</v>
+        <v>0.06540807534616072</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03621544685205862</v>
+        <v>0.03428007559273559</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>30</v>
+      </c>
+      <c r="J63" t="n">
+        <v>60</v>
+      </c>
+      <c r="K63" t="n">
+        <v>179.2083257172285</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3401600982.578574</v>
+        <v>3944985150.941609</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1707784991601257</v>
+        <v>0.1634625013671418</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02999096256719063</v>
+        <v>0.02782642124776943</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>60</v>
+      </c>
+      <c r="K64" t="n">
+        <v>183.7082017949078</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4180359787.422299</v>
+        <v>3767749080.476007</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1342639828618891</v>
+        <v>0.1647659127290116</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03019837725621113</v>
+        <v>0.02289111548825975</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>48</v>
+      </c>
+      <c r="J65" t="n">
+        <v>61</v>
+      </c>
+      <c r="K65" t="n">
+        <v>196.1399483847414</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4120648967.09385</v>
+        <v>4283178742.525928</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1605125951303029</v>
+        <v>0.133074553276182</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03666134485367329</v>
+        <v>0.0395507844837811</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30</v>
+      </c>
+      <c r="J66" t="n">
+        <v>60</v>
+      </c>
+      <c r="K66" t="n">
+        <v>181.5648073374949</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2470817352.976081</v>
+        <v>3037645079.45224</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1015793954277243</v>
+        <v>0.06787730162247185</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04321845655015186</v>
+        <v>0.04550829921041354</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4104412717.030723</v>
+        <v>3949730821.736888</v>
       </c>
       <c r="F68" t="n">
-        <v>0.108656221732771</v>
+        <v>0.1342956387751593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04734033127940303</v>
+        <v>0.03145997864698109</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>61</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2481298777.54437</v>
+        <v>2198460199.930815</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1519635722965755</v>
+        <v>0.1270955261170827</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05893643487668444</v>
+        <v>0.05365993039851704</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2924656298.741327</v>
+        <v>3276672749.745338</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06621634336781217</v>
+        <v>0.09294846273700431</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03290141030395818</v>
+        <v>0.03474229701674882</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388821119.417094</v>
+        <v>5115364527.877937</v>
       </c>
       <c r="F71" t="n">
-        <v>0.185729212657875</v>
+        <v>0.157436579010141</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03248914575050035</v>
+        <v>0.0313519419424992</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>50</v>
+      </c>
+      <c r="J71" t="n">
+        <v>61</v>
+      </c>
+      <c r="K71" t="n">
+        <v>197.3656873615114</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2208185713.722443</v>
+        <v>1729555519.000911</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07236584915843911</v>
+        <v>0.07807896678254148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03316505642440691</v>
+        <v>0.03468721109224325</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2639444948.373774</v>
+        <v>2693030409.552104</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1104999154353202</v>
+        <v>0.08956581386708945</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04320641398376345</v>
+        <v>0.04985570263634898</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3417825766.863639</v>
+        <v>3765848500.150611</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1546054010402191</v>
+        <v>0.1356605894139271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02861689281302994</v>
+        <v>0.02800000253243878</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1634862071.74494</v>
+        <v>1546622780.453892</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1134298664719357</v>
+        <v>0.1608000801153107</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02780405399195551</v>
+        <v>0.03486310416118285</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4574949310.825335</v>
+        <v>4693043877.420089</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08948138302400777</v>
+        <v>0.09409128261119866</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02644609923863573</v>
+        <v>0.02136688002574346</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" t="n">
+        <v>61</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2307694421.607583</v>
+        <v>2157626525.626304</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1865745496036826</v>
+        <v>0.1639693751708293</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02153005893266818</v>
+        <v>0.02528906358267785</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3194730641.723629</v>
+        <v>3006741822.265174</v>
       </c>
       <c r="F78" t="n">
-        <v>0.12706946926156</v>
+        <v>0.1236248336535474</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03493908600088986</v>
+        <v>0.03910870234883802</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>60</v>
+      </c>
+      <c r="K78" t="n">
+        <v>124.7604641831379</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1642683896.507661</v>
+        <v>1282459604.958138</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1391597902282331</v>
+        <v>0.1288437978947385</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03970362986400973</v>
+        <v>0.04029438655192934</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4830258939.849471</v>
+        <v>4193321504.76964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09744717882240098</v>
+        <v>0.08553812538716746</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03416296241241515</v>
+        <v>0.0316434146671794</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>29</v>
+      </c>
+      <c r="J80" t="n">
+        <v>61</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3153034155.875169</v>
+        <v>5072626223.95635</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1026297393046872</v>
+        <v>0.1228469984510578</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02458217674681028</v>
+        <v>0.03160790506476086</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>27</v>
+      </c>
+      <c r="J81" t="n">
+        <v>61</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4640396793.163441</v>
+        <v>4777783887.906282</v>
       </c>
       <c r="F82" t="n">
-        <v>0.209932470278375</v>
+        <v>0.1560817461047329</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01831201940567739</v>
+        <v>0.02473217953550685</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>35</v>
+      </c>
+      <c r="J82" t="n">
+        <v>61</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1827178839.43698</v>
+        <v>2474750485.508823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1198494982687148</v>
+        <v>0.1244853722283589</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02935977551119215</v>
+        <v>0.04060041425484767</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1783257477.227412</v>
+        <v>2190084910.738699</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0747307099049372</v>
+        <v>0.08346348799347572</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04801204626520713</v>
+        <v>0.05240428834875695</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2983379916.42526</v>
+        <v>2567050069.154703</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1154178764794798</v>
+        <v>0.1226032508703794</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04031741899459497</v>
+        <v>0.05077028946168587</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>60</v>
+      </c>
+      <c r="K85" t="n">
+        <v>96.31010915953144</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2779284870.518571</v>
+        <v>1996204791.521788</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1554684115264437</v>
+        <v>0.1548378240772777</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02692677738168588</v>
+        <v>0.02144963111221245</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1478493625.451223</v>
+        <v>1362742639.360825</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1378745582090174</v>
+        <v>0.167219993145779</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04139678336076009</v>
+        <v>0.03762789589342542</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2462038135.888087</v>
+        <v>3271615996.191936</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1302476663439194</v>
+        <v>0.1296225120691499</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02688010218770653</v>
+        <v>0.02809226498131387</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2307530500.051251</v>
+        <v>2247948758.367044</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1084444189524324</v>
+        <v>0.1339502091521433</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02919976645946387</v>
+        <v>0.03406800386426929</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>60</v>
+      </c>
+      <c r="K89" t="n">
+        <v>69.1370688047059</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1670466714.529564</v>
+        <v>1304207140.091749</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1170614836528554</v>
+        <v>0.1099226392798741</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03720382268814065</v>
+        <v>0.04018503457423837</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1731293927.625484</v>
+        <v>1355841465.065475</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1893994233292643</v>
+        <v>0.1592623645297302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03977265219922525</v>
+        <v>0.05705753582277549</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2992798116.730985</v>
+        <v>2765582485.279441</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07719189431803686</v>
+        <v>0.1061784673630008</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04069064399272002</v>
+        <v>0.02871535072542461</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4694515045.529255</v>
+        <v>4634800434.294106</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1409110555511987</v>
+        <v>0.1346563994970377</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04561040778037038</v>
+        <v>0.04824911941019184</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>60</v>
+      </c>
+      <c r="K93" t="n">
+        <v>178.0753908255442</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2133177693.312417</v>
+        <v>1652493756.478603</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1353034052910152</v>
+        <v>0.1063548306100975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03874557047161424</v>
+        <v>0.03922699229402867</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2347134465.808491</v>
+        <v>2470459537.863636</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09414808345645301</v>
+        <v>0.1282997414617693</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04694432203006894</v>
+        <v>0.03355149835490209</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2196855895.63552</v>
+        <v>1918321759.619594</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08955730420785864</v>
+        <v>0.09013378684960877</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04333083576595727</v>
+        <v>0.03665268831325458</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3491304102.483588</v>
+        <v>4042330658.595284</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1720347392803082</v>
+        <v>0.1643774768370972</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02179315504097177</v>
+        <v>0.02486749074785942</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>61</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3514518398.845453</v>
+        <v>3450787663.09659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1280877184912307</v>
+        <v>0.0937402276200241</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02244091406932957</v>
+        <v>0.03044607070898809</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3235457227.329607</v>
+        <v>3255327493.148047</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1045787384451468</v>
+        <v>0.128837301535986</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03384581566016064</v>
+        <v>0.02209319486585358</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4706652101.988789</v>
+        <v>3255744747.921234</v>
       </c>
       <c r="F100" t="n">
-        <v>0.118114165285744</v>
+        <v>0.1649953086901949</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01935409441479483</v>
+        <v>0.02196365249290261</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>59</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2709911882.779026</v>
+        <v>2731032519.460207</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2013503189100335</v>
+        <v>0.1386517914740979</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05758556564280284</v>
+        <v>0.03557505124361921</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
